--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55DFB7-A57C-4346-8630-5D47441A9777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90669DD-22B6-448E-AB9F-AE89616971FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params_sim" sheetId="22" r:id="rId1"/>
@@ -77,7 +77,7 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="N4" authorId="2" shapeId="0" xr:uid="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
+    <comment ref="R4" authorId="2" shapeId="0" xr:uid="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
     the DR used in determining COLA. Leave blank (NA when loaded) if the DR for regular valuation is used.</t>
       </text>
     </comment>
-    <comment ref="S4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="W4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +93,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AK4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="271">
   <si>
     <t>nsim</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t>cd</t>
   </si>
   <si>
     <t>notes</t>
@@ -1096,6 +1093,24 @@
   </si>
   <si>
     <t>"regularAll"</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Parameters for MEPERS policy</t>
+  </si>
+  <si>
+    <t>ERC_cap</t>
+  </si>
+  <si>
+    <t>EEC_cap</t>
+  </si>
+  <si>
+    <t>ERC_share</t>
+  </si>
+  <si>
+    <t>EEC_share</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,6 +1310,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1349,7 +1370,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1439,6 +1460,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1761,10 +1785,10 @@
   <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="N4" dT="2020-08-16T01:43:29.52" personId="{00000000-0000-0000-0000-000000000000}" id="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
+  <threadedComment ref="R4" dT="2020-08-16T01:43:29.52" personId="{00000000-0000-0000-0000-000000000000}" id="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
     <text>the DR used in determining COLA. Leave blank (NA when loaded) if the DR for regular valuation is used.</text>
   </threadedComment>
-  <threadedComment ref="S4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="W4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -1799,13 +1823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:AS9"/>
+  <dimension ref="A2:AW9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1816,636 +1840,671 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.42578125" customWidth="1"/>
-    <col min="38" max="38" width="23" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" customWidth="1"/>
-    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" customWidth="1"/>
-    <col min="45" max="45" width="14.28515625" customWidth="1"/>
+    <col min="11" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.42578125" customWidth="1"/>
+    <col min="42" max="42" width="23" customWidth="1"/>
+    <col min="43" max="43" width="16.5703125" customWidth="1"/>
+    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.28515625" customWidth="1"/>
+    <col min="48" max="48" width="11.42578125" customWidth="1"/>
+    <col min="49" max="49" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:45">
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-    </row>
-    <row r="3" spans="1:45" s="21" customFormat="1" ht="18.75">
+    <row r="2" spans="1:49">
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+    </row>
+    <row r="3" spans="1:49" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
-      <c r="K3" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="16" t="s">
+      <c r="K3" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
-      <c r="AF3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
-      <c r="AM3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="AR3" s="20"/>
       <c r="AS3" s="20"/>
-    </row>
-    <row r="4" spans="1:45" s="1" customFormat="1">
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+    </row>
+    <row r="4" spans="1:49" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <v>0.125</v>
+      </c>
+      <c r="L5">
+        <v>0.09</v>
+      </c>
+      <c r="M5">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>265</v>
+      </c>
+      <c r="U5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>2.75E-2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>999</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF5">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AI5" s="38">
+        <v>123</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AM5" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AP5" s="43">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="38"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AP6" s="43"/>
+      <c r="AW6" s="22"/>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="B7" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.02</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>250</v>
+      </c>
+      <c r="U8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8">
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>999</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AI8" s="38">
+        <v>123</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL8" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AM8" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AP8" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS4" s="12" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.02</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>250</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.02</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5">
+      <c r="Y9">
+        <v>999</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD9" t="s">
         <v>20</v>
       </c>
-      <c r="S5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>999</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>252</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA5">
+      <c r="AE9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AF9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AG9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AH9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AI9" s="38">
         <v>123</v>
       </c>
-      <c r="AF5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH5" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI5" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL5" s="43">
+      <c r="AJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="44">
+        <v>81825573157</v>
+      </c>
+      <c r="AO9" s="44">
+        <v>81825573157</v>
+      </c>
+      <c r="AP9" s="43">
         <v>0.1</v>
       </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
         <v>3</v>
       </c>
-      <c r="AR5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="38"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AL6" s="43"/>
-      <c r="AS6" s="22"/>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="B7" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.02</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8">
-        <v>20</v>
-      </c>
-      <c r="S8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
-      <c r="U8">
-        <v>999</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>252</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB8">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE8" s="38">
-        <v>123</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH8" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AI8" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AL8" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.02</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9">
-        <v>20</v>
-      </c>
-      <c r="S9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="U9">
-        <v>999</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>252</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB9">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AE9" s="38">
-        <v>123</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="44">
-        <v>81825573157</v>
-      </c>
-      <c r="AK9" s="44">
-        <v>81825573157</v>
-      </c>
-      <c r="AL9" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="22" t="b">
+      <c r="AV9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="22" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN5:AO6 C5:C6 C8:C9 AN8:AO9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR5:AS6 C5:C6 C8:C9 AR8:AS9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5:Y6 Y8:Y9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AC6 AC8:AC9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 D8:D9" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
@@ -2475,15 +2534,15 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2494,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2505,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2516,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2529,11 +2588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F07677-8B44-417E-B263-203C3A91094A}">
   <dimension ref="A3:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2562,108 +2621,108 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>108</v>
-      </c>
       <c r="M4" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
         <v>264</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>265</v>
-      </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>2.75E-2</v>
@@ -2725,22 +2784,22 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14">
         <v>2.75E-2</v>
@@ -2778,22 +2837,22 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>2.75E-2</v>
@@ -2831,22 +2890,22 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <v>2.75E-2</v>
@@ -2887,22 +2946,22 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18">
         <v>2.75E-2</v>
@@ -2943,22 +3002,22 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19">
         <v>2.75E-2</v>
@@ -2999,22 +3058,22 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20">
         <v>2.75E-2</v>
@@ -3055,22 +3114,22 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <v>2.75E-2</v>
@@ -3111,22 +3170,22 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <v>2.75E-2</v>
@@ -3167,22 +3226,22 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24">
         <v>2.75E-2</v>
@@ -3223,22 +3282,22 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27">
         <v>2.75E-2</v>
@@ -3276,22 +3335,22 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28">
         <v>2.75E-2</v>
@@ -3329,22 +3388,22 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29">
         <v>2.75E-2</v>
@@ -3385,22 +3444,22 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31">
         <v>2.75E-2</v>
@@ -3441,22 +3500,22 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32">
         <v>2.75E-2</v>
@@ -3497,22 +3556,22 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>2.75E-2</v>
@@ -3553,22 +3612,22 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>2.75E-2</v>
@@ -3609,22 +3668,22 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36">
         <v>2.75E-2</v>
@@ -3665,22 +3724,22 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2.75E-2</v>
@@ -3724,22 +3783,22 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40">
         <v>2.75E-2</v>
@@ -3777,22 +3836,22 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41">
         <v>2.75E-2</v>
@@ -3830,22 +3889,22 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43">
         <v>2.75E-2</v>
@@ -3886,22 +3945,22 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <v>2.75E-2</v>
@@ -3942,22 +4001,22 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49">
         <v>2.75E-2</v>
@@ -3995,22 +4054,22 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>2.75E-2</v>
@@ -4048,22 +4107,22 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51">
         <v>2.75E-2</v>
@@ -4119,7 +4178,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4131,7 +4190,7 @@
   <sheetData>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4143,22 +4202,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4214,10 +4273,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4258,7 +4317,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -4267,12 +4326,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E11" si="0">F2</f>
-        <v>7.0000000000000007E-2</v>
+        <f>F2</f>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F3" si="1">B2 - C2^2/2</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" ref="F2" si="0">B2 - C2^2/2</f>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -4283,82 +4342,81 @@
         <v>20</v>
       </c>
       <c r="B3" s="4">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E10" si="1">F3</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3" si="2">B3 - C3^2/2</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F6" si="3">B4 - C4^2/2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.03</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <f>F3</f>
-        <v>0.03</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4" si="2">B4 - C4^2/2</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F7" si="3">B5 - C5^2/2</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4">
-        <v>0.03</v>
+        <v>-0.24</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -4367,22 +4425,23 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+        <f t="shared" si="1"/>
+        <v>-0.24</v>
       </c>
       <c r="F6" s="6">
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>-0.24</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4">
-        <v>-0.24</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -4391,12 +4450,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.24</v>
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="3"/>
-        <v>-0.24</v>
+        <f t="shared" ref="F7:F10" si="4">B7 - C7^2/2</f>
+        <v>0.12</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -4404,7 +4463,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4">
         <v>0.12</v>
@@ -4416,11 +4475,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F11" si="4">B8 - C8^2/2</f>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="G8" t="s">
@@ -4429,7 +4488,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -4441,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="F9" s="6">
@@ -4454,52 +4513,27 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="4"/>
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4534,43 +4568,43 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>83</v>
-      </c>
       <c r="F3" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="I3" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="K3" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="27">
         <v>174402</v>
@@ -4602,7 +4636,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="27">
         <v>37586</v>
@@ -4634,7 +4668,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="27">
         <v>61005</v>
@@ -4666,7 +4700,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="27">
         <v>195158</v>
@@ -4698,7 +4732,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="27">
         <v>468151</v>
@@ -4735,7 +4769,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="27">
         <v>12251583453</v>
@@ -4767,7 +4801,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="27">
         <v>12934685803</v>
@@ -4806,7 +4840,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -4814,7 +4848,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="27">
         <v>132446673597</v>
@@ -4846,7 +4880,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="27">
         <v>115469058970</v>
@@ -4878,7 +4912,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="27">
         <v>80223069956</v>
@@ -4910,7 +4944,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="27">
         <v>35245989014</v>
@@ -4942,7 +4976,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="32">
         <v>0.69499999999999995</v>
@@ -4983,7 +5017,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -4991,7 +5025,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="27">
         <v>2174670866</v>
@@ -5023,7 +5057,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="27">
         <v>893164372</v>
@@ -5055,7 +5089,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="27">
         <v>1281506494</v>
@@ -5087,7 +5121,7 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="27">
         <v>2725165218</v>
@@ -5119,7 +5153,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="27">
         <f>B24+B25</f>
@@ -5158,12 +5192,12 @@
     </row>
     <row r="28" spans="1:11" ht="25.5">
       <c r="A28" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="34">
         <v>0.16813</v>
@@ -5195,7 +5229,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="34">
         <v>6.905E-2</v>
@@ -5227,7 +5261,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="34">
         <v>9.9080000000000001E-2</v>
@@ -5259,7 +5293,7 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="34">
         <v>0.21068999999999999</v>
@@ -5291,7 +5325,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="35">
         <v>0.30976999999999999</v>
@@ -5323,12 +5357,12 @@
     </row>
     <row r="35" spans="1:11" ht="25.5">
       <c r="A35" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="36">
         <f>B22/B$11</f>
@@ -5365,7 +5399,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="36">
         <f t="shared" ref="B37:C39" si="10">B23/B$11</f>
@@ -5402,7 +5436,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="36">
         <f t="shared" si="10"/>
@@ -5439,7 +5473,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="36">
         <f t="shared" si="10"/>
@@ -5476,7 +5510,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="36">
         <f>SUM(B24:B25)/B$11</f>
@@ -5542,22 +5576,22 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="60"/>
       <c r="F3" s="60"/>
@@ -5565,48 +5599,48 @@
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="24">
         <v>174402</v>
@@ -5624,7 +5658,7 @@
         <v>7311</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="24">
         <v>200645</v>
@@ -5639,7 +5673,7 @@
         <v>26540</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="24">
         <v>170997</v>
@@ -5650,7 +5684,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="24">
         <v>195158</v>
@@ -5668,7 +5702,7 @@
         <v>9158</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="24"/>
       <c r="M6" s="24">
@@ -5678,7 +5712,7 @@
         <v>534</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <f>148525+24916</f>
@@ -5696,7 +5730,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="H7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M7" s="24">
         <v>98457</v>
@@ -5705,7 +5739,7 @@
         <v>96</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <f>10827+2402</f>
@@ -5718,7 +5752,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -5730,7 +5764,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="50">
         <f>B5/SUM($B5:$C5)</f>
@@ -5753,15 +5787,15 @@
         <v>9.5028270618054203E-2</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="50">
         <f>B6/SUM($B6:$C6)</f>
@@ -5784,7 +5818,7 @@
         <v>0.12234483127154193</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="23">
         <f>I5/SUM($I5:$J5)</f>
@@ -5803,7 +5837,7 @@
         <v>0.29259687999559009</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="6">
         <f>Q5/SUM($Q5:$R5)</f>
@@ -5821,7 +5855,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="H11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M11" s="23">
         <f>M6/SUM($M6:$N6)</f>
@@ -5832,7 +5866,7 @@
         <v>8.9594759881010102E-4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" ref="Q11:R11" si="1">Q6/SUM($Q6:$R6)</f>
@@ -5845,7 +5879,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="H12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M12" s="23">
         <f>M7/SUM($M7:$N7)</f>
@@ -5856,7 +5890,7 @@
         <v>9.7409515692064165E-4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" ref="Q12:R12" si="2">Q7/SUM($Q7:$R7)</f>
@@ -5869,17 +5903,17 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="50">
         <f>B9</f>
@@ -5888,7 +5922,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="50">
         <f>B16*I10</f>
@@ -5897,7 +5931,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="50">
         <f>B16*J10</f>
@@ -5906,7 +5940,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="50">
         <f>B16*Q10</f>
@@ -5915,7 +5949,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="50">
         <f>B16*R10</f>
@@ -5927,7 +5961,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="50">
         <f>1-B16</f>
@@ -5936,7 +5970,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="50">
         <f>B22*I10</f>
@@ -5945,7 +5979,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="50">
         <f>B22*J10</f>
@@ -5954,17 +5988,17 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4">
         <f>D9*K10</f>
@@ -5973,7 +6007,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="4">
         <f>D9*L10</f>
@@ -5982,7 +6016,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4">
         <f>E9*K10</f>
@@ -5991,7 +6025,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4">
         <f>E9*L10</f>
@@ -6000,7 +6034,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="4">
         <f>F9*K10</f>
@@ -6009,7 +6043,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="4">
         <f>F9*L10</f>
@@ -6046,20 +6080,20 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="24">
         <v>259890776</v>
@@ -6075,7 +6109,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="24">
         <v>64796136</v>
@@ -6091,7 +6125,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="24">
         <v>29308589</v>
@@ -6107,7 +6141,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="24">
         <v>113876</v>
@@ -6123,7 +6157,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="24">
         <v>39631</v>
@@ -6139,7 +6173,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="24">
         <v>1525514</v>
@@ -6155,7 +6189,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="24">
         <v>1495746</v>
@@ -6171,7 +6205,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="24">
         <v>116135</v>
@@ -6187,7 +6221,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="24">
         <v>365580900</v>
@@ -6220,7 +6254,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18">
         <v>136231421</v>
@@ -6230,7 +6264,7 @@
         <v>0.37264370485438381</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6239,7 +6273,7 @@
         <v>0.52418721086122733</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6248,7 +6282,7 @@
         <v>0.38483941353819634</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6274,12 +6308,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="24">
         <v>80223070</v>
@@ -6291,7 +6325,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="24">
         <f>3589902866/1000</f>
@@ -6304,7 +6338,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="24">
         <f>SUM(B2:B3)</f>
@@ -6325,7 +6359,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="47">
         <f>10551342261/1000</f>
@@ -6338,7 +6372,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="47">
         <f>33326594392/1000</f>
@@ -6351,7 +6385,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="47">
         <f>8540511923/1000</f>
@@ -6364,7 +6398,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="24">
         <f>136231421398/1000</f>
@@ -6381,7 +6415,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="24">
         <v>259890776</v>
@@ -6389,7 +6423,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="24">
         <v>64796136</v>
@@ -6397,7 +6431,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="24">
         <v>29308589</v>
@@ -6405,7 +6439,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="24">
         <v>365580900</v>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90669DD-22B6-448E-AB9F-AE89616971FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64558DA4-1C31-4A2A-86BD-305C6DE1F90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="R4" authorId="2" shapeId="0" xr:uid="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
+    <comment ref="S4" authorId="2" shapeId="0" xr:uid="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
     the DR used in determining COLA. Leave blank (NA when loaded) if the DR for regular valuation is used.</t>
       </text>
     </comment>
-    <comment ref="W4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="X4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +93,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AB4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="273">
   <si>
     <t>nsim</t>
   </si>
@@ -1111,6 +1111,12 @@
   </si>
   <si>
     <t>EEC_share</t>
+  </si>
+  <si>
+    <t>EEC_type</t>
+  </si>
+  <si>
+    <t>sharedADC</t>
   </si>
 </sst>
 </file>
@@ -1785,10 +1791,10 @@
   <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="R4" dT="2020-08-16T01:43:29.52" personId="{00000000-0000-0000-0000-000000000000}" id="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
+  <threadedComment ref="S4" dT="2020-08-16T01:43:29.52" personId="{00000000-0000-0000-0000-000000000000}" id="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
     <text>the DR used in determining COLA. Leave blank (NA when loaded) if the DR for regular valuation is used.</text>
   </threadedComment>
-  <threadedComment ref="W4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="X4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -1823,13 +1829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:AW9"/>
+  <dimension ref="A2:AX9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1845,42 +1851,43 @@
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="25.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.42578125" customWidth="1"/>
-    <col min="42" max="42" width="23" customWidth="1"/>
-    <col min="43" max="43" width="16.5703125" customWidth="1"/>
-    <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" customWidth="1"/>
-    <col min="48" max="48" width="11.42578125" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="12.42578125" customWidth="1"/>
+    <col min="43" max="43" width="23" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49">
-      <c r="AL2" s="23"/>
+    <row r="2" spans="1:50">
       <c r="AM2" s="23"/>
-    </row>
-    <row r="3" spans="1:49" s="21" customFormat="1" ht="18.75">
+      <c r="AN2" s="23"/>
+    </row>
+    <row r="3" spans="1:50" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1901,55 +1908,56 @@
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="N3" s="61"/>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="19"/>
       <c r="AE3" s="19"/>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
       <c r="AI3" s="19"/>
-      <c r="AJ3" s="15" t="s">
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
-      <c r="AQ3" s="20" t="s">
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="20"/>
       <c r="AS3" s="20"/>
       <c r="AT3" s="20"/>
       <c r="AU3" s="20"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
-    </row>
-    <row r="4" spans="1:49" s="1" customFormat="1">
+      <c r="AX3" s="20"/>
+    </row>
+    <row r="4" spans="1:50" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
@@ -1992,113 +2000,116 @@
       <c r="N4" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="Q4" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="R4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="S4" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="T4" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AR4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AS4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AU4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AV4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AW4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2138,115 +2149,118 @@
       <c r="N5">
         <v>0.41860000000000003</v>
       </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
         <v>265</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>35</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>20</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2.75E-2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>999</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
         <v>251</v>
       </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
         <v>112</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>20</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AH5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI5" s="38">
+      <c r="AJ5" s="38">
         <v>123</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>31</v>
       </c>
       <c r="AK5" t="s">
         <v>31</v>
       </c>
-      <c r="AL5" s="23">
-        <v>0.88300000000000001</v>
+      <c r="AL5" t="s">
+        <v>31</v>
       </c>
       <c r="AM5" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AP5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>1</v>
+      <c r="AN5" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AQ5" s="43">
+        <v>0</v>
       </c>
       <c r="AR5" t="b">
         <v>1</v>
       </c>
       <c r="AS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
         <v>3</v>
       </c>
-      <c r="AV5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49">
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="38"/>
-      <c r="AL6" s="23"/>
+      <c r="AW5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="38"/>
       <c r="AM6" s="23"/>
-      <c r="AP6" s="43"/>
-      <c r="AW6" s="22"/>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="AN6" s="23"/>
+      <c r="AQ6" s="43"/>
+      <c r="AX6" s="22"/>
+    </row>
+    <row r="7" spans="1:50">
       <c r="B7" s="56" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -2277,101 +2291,101 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0.02</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>250</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>35</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>20</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>5</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>999</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
         <v>251</v>
       </c>
-      <c r="AB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
         <v>112</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>20</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AI8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI8" s="38">
+      <c r="AJ8" s="38">
         <v>123</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>31</v>
       </c>
       <c r="AK8" t="s">
         <v>31</v>
       </c>
-      <c r="AL8" s="23">
-        <v>0.6976</v>
+      <c r="AL8" t="s">
+        <v>31</v>
       </c>
       <c r="AM8" s="23">
         <v>0.6976</v>
       </c>
-      <c r="AP8" s="43">
+      <c r="AN8" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AQ8" s="43">
         <v>0.1</v>
       </c>
-      <c r="AQ8" t="b">
-        <v>1</v>
-      </c>
       <c r="AR8" t="b">
         <v>1</v>
       </c>
       <c r="AS8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
         <v>3</v>
       </c>
-      <c r="AV8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="AW8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -2402,109 +2416,109 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>0.02</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>250</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>35</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>20</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>999</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>251</v>
       </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
         <v>112</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>20</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AH9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AI9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI9" s="38">
+      <c r="AJ9" s="38">
         <v>123</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>122</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>123</v>
       </c>
-      <c r="AL9" s="23"/>
       <c r="AM9" s="23"/>
-      <c r="AN9" s="44">
-        <v>81825573157</v>
-      </c>
+      <c r="AN9" s="23"/>
       <c r="AO9" s="44">
         <v>81825573157</v>
       </c>
-      <c r="AP9" s="43">
+      <c r="AP9" s="44">
+        <v>81825573157</v>
+      </c>
+      <c r="AQ9" s="43">
         <v>0.1</v>
       </c>
-      <c r="AQ9" t="b">
-        <v>1</v>
-      </c>
       <c r="AR9" t="b">
         <v>1</v>
       </c>
       <c r="AS9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="s">
         <v>3</v>
       </c>
-      <c r="AV9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="22" t="b">
+      <c r="AW9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="22" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR5:AS6 C5:C6 C8:C9 AR8:AS9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AT6 C5:C6 C8:C9 AS8:AT9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AC6 AC8:AC9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AD6 AD8:AD9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 D8:D9" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64558DA4-1C31-4A2A-86BD-305C6DE1F90E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4B12E-DC63-44E1-8D72-1140DE1BED76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,6 @@
   <authors>
     <author>Author</author>
     <author>tc={1E17415D-3C00-4D50-B13B-6BE374701D46}</author>
-    <author>tc={CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}</author>
     <author>tc={8515E407-C037-4E97-A4C6-62FC0108B1A6}</author>
   </authors>
   <commentList>
@@ -77,15 +76,7 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="S4" authorId="2" shapeId="0" xr:uid="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    the DR used in determining COLA. Leave blank (NA when loaded) if the DR for regular valuation is used.</t>
-      </text>
-    </comment>
-    <comment ref="X4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="Z4" authorId="2" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +84,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AB4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AD4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -118,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AN4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -235,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="275">
   <si>
     <t>nsim</t>
   </si>
@@ -574,18 +565,6 @@
   </si>
   <si>
     <t>internal</t>
-  </si>
-  <si>
-    <t>Contingent COLA</t>
-  </si>
-  <si>
-    <t>cola_max_FR</t>
-  </si>
-  <si>
-    <t>cola_min_FR</t>
-  </si>
-  <si>
-    <t>useContingentCOLA</t>
   </si>
   <si>
     <t>California Rule</t>
@@ -1017,12 +996,6 @@
     <t>sftyAll, 1.5%bfactor(new), 1%cola(cola suspension), 5% discount</t>
   </si>
   <si>
-    <t>use_lowerDR</t>
-  </si>
-  <si>
-    <t>cola_lowerDR_fixedALratio</t>
-  </si>
-  <si>
     <t>"misc_classic","misc_pepra"</t>
   </si>
   <si>
@@ -1117,6 +1090,30 @@
   </si>
   <si>
     <t>sharedADC</t>
+  </si>
+  <si>
+    <t>riskSharing</t>
+  </si>
+  <si>
+    <t>cola_type</t>
+  </si>
+  <si>
+    <t>cola_assumed</t>
+  </si>
+  <si>
+    <t>cola_max</t>
+  </si>
+  <si>
+    <t>cola_min</t>
+  </si>
+  <si>
+    <t>use_Cfloors</t>
+  </si>
+  <si>
+    <t>ERC_floor</t>
+  </si>
+  <si>
+    <t>EEC_floor</t>
   </si>
 </sst>
 </file>
@@ -1791,10 +1788,7 @@
   <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="S4" dT="2020-08-16T01:43:29.52" personId="{00000000-0000-0000-0000-000000000000}" id="{CAF507CB-F634-4E84-8E7F-17CD8E2A0EDC}">
-    <text>the DR used in determining COLA. Leave blank (NA when loaded) if the DR for regular valuation is used.</text>
-  </threadedComment>
-  <threadedComment ref="X4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="Z4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -1829,13 +1823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:AX9"/>
+  <dimension ref="A2:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AG5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1852,42 +1846,39 @@
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="14" width="12.5703125" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="12.42578125" customWidth="1"/>
-    <col min="43" max="43" width="23" customWidth="1"/>
-    <col min="44" max="44" width="16.5703125" customWidth="1"/>
-    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" customWidth="1"/>
+    <col min="16" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="22" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="39" max="39" width="17.42578125" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="12.42578125" customWidth="1"/>
+    <col min="45" max="45" width="23" customWidth="1"/>
+    <col min="46" max="46" width="16.5703125" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:50">
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-    </row>
-    <row r="3" spans="1:50" s="21" customFormat="1" ht="18.75">
+    <row r="2" spans="1:52">
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="1:52" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1897,67 +1888,67 @@
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
       <c r="K3" s="61" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
-      <c r="P3" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="16" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
       <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
       <c r="AQ3" s="15"/>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
       <c r="AU3" s="20"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
       <c r="AX3" s="20"/>
-    </row>
-    <row r="4" spans="1:50" s="1" customFormat="1">
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20"/>
+    </row>
+    <row r="4" spans="1:52" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
@@ -1977,139 +1968,145 @@
         <v>78</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K4" s="62" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L4" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="S4" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="T4" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="U4" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="V4" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="P4" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="40" t="s">
+      <c r="W4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="R4" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AT4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AU4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AV4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AW4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2150,375 +2147,369 @@
         <v>0.41860000000000003</v>
       </c>
       <c r="O5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>267</v>
+      </c>
+      <c r="T5">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="U5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>265</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>259</v>
+      </c>
+      <c r="X5" t="s">
         <v>35</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>20</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>2.75E-2</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>3</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>999</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC5" t="b">
+      <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
         <v>112</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>20</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AI5">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL5" s="38">
+        <v>123</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AP5" s="23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AS5" s="43">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="38"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AS6" s="43"/>
+      <c r="AZ6" s="22"/>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="B7" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>244</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>999</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG5">
+      <c r="AI8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AJ8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AK8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ5" s="38">
+      <c r="AL8" s="38">
         <v>123</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM8" t="s">
         <v>31</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AN8" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="23">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="AN5" s="23">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="AQ5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="s">
+      <c r="AO8" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AP8" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AS8" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
         <v>3</v>
       </c>
-      <c r="AW5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50">
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="38"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AQ6" s="43"/>
-      <c r="AX6" s="22"/>
-    </row>
-    <row r="7" spans="1:50">
-      <c r="B7" s="56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50">
-      <c r="A8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>242</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.02</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>244</v>
+      </c>
+      <c r="X9" t="s">
         <v>35</v>
       </c>
-      <c r="W8">
+      <c r="Y9">
         <v>20</v>
       </c>
-      <c r="X8">
+      <c r="Z9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Y8">
+      <c r="AA9">
         <v>5</v>
       </c>
-      <c r="Z8">
+      <c r="AB9">
         <v>999</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>112</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG9" t="s">
         <v>20</v>
       </c>
-      <c r="AF8">
+      <c r="AH9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG8">
+      <c r="AI9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AJ9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AK9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ8" s="38">
+      <c r="AL9" s="38">
         <v>123</v>
       </c>
-      <c r="AK8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM8" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AN8" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AQ8" s="43">
+      <c r="AM9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="44">
+        <v>81825573157</v>
+      </c>
+      <c r="AR9" s="44">
+        <v>81825573157</v>
+      </c>
+      <c r="AS9" s="43">
         <v>0.1</v>
       </c>
-      <c r="AR8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="s">
+      <c r="AT9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
         <v>3</v>
       </c>
-      <c r="AW8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50">
-      <c r="A9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0.02</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>250</v>
-      </c>
-      <c r="V9" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9">
-        <v>20</v>
-      </c>
-      <c r="X9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Y9">
-        <v>5</v>
-      </c>
-      <c r="Z9">
-        <v>999</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AG9">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AJ9" s="38">
-        <v>123</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="44">
-        <v>81825573157</v>
-      </c>
-      <c r="AP9" s="44">
-        <v>81825573157</v>
-      </c>
-      <c r="AQ9" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="AR9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="22" t="b">
+      <c r="AY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="22" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AT6 C5:C6 C8:C9 AS8:AT9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU5:AV6 C5:C6 C8:C9 AU8:AV9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD5:AD6 AD8:AD9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF6 AF8:AF9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 D8:D9" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
@@ -2548,15 +2539,15 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2567,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2578,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2589,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2594,7 @@
   <dimension ref="A3:R51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
@@ -2650,18 +2641,18 @@
         <v>104</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
@@ -2704,27 +2695,27 @@
         <v>107</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -2733,7 +2724,7 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2798,10 +2789,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2851,10 +2842,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2904,10 +2895,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2960,10 +2951,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3016,10 +3007,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3072,10 +3063,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3128,10 +3119,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3184,10 +3175,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3240,10 +3231,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3296,10 +3287,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3308,7 +3299,7 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
         <v>66</v>
@@ -3349,10 +3340,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3361,7 +3352,7 @@
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
         <v>66</v>
@@ -3402,10 +3393,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
         <v>202</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3414,7 +3405,7 @@
         <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
         <v>66</v>
@@ -3458,10 +3449,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3470,7 +3461,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
         <v>66</v>
@@ -3514,10 +3505,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3526,7 +3517,7 @@
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
         <v>66</v>
@@ -3570,10 +3561,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3582,7 +3573,7 @@
         <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
         <v>66</v>
@@ -3626,10 +3617,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3638,7 +3629,7 @@
         <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
         <v>66</v>
@@ -3682,10 +3673,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3694,7 +3685,7 @@
         <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
         <v>66</v>
@@ -3738,10 +3729,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3750,7 +3741,7 @@
         <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
         <v>66</v>
@@ -3797,10 +3788,10 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" t="s">
         <v>231</v>
-      </c>
-      <c r="B40" t="s">
-        <v>235</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -3850,10 +3841,10 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
         <v>232</v>
-      </c>
-      <c r="B41" t="s">
-        <v>236</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -3862,7 +3853,7 @@
         <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F41" t="s">
         <v>66</v>
@@ -3903,10 +3894,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
         <v>233</v>
-      </c>
-      <c r="B43" t="s">
-        <v>237</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -3959,10 +3950,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
         <v>234</v>
-      </c>
-      <c r="B44" t="s">
-        <v>238</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3971,7 +3962,7 @@
         <v>68</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
         <v>66</v>
@@ -4015,10 +4006,10 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="59" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -4027,7 +4018,7 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F49" t="s">
         <v>66</v>
@@ -4068,10 +4059,10 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="59" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -4080,7 +4071,7 @@
         <v>68</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
         <v>66</v>
@@ -4121,10 +4112,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="59" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -4133,7 +4124,7 @@
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F51" t="s">
         <v>66</v>
@@ -4192,7 +4183,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4582,7 +4573,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4596,19 +4587,19 @@
         <v>82</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5167,7 +5158,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B26" s="27">
         <f>B24+B25</f>
@@ -5590,22 +5581,22 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" t="s">
         <v>221</v>
       </c>
-      <c r="I2" t="s">
-        <v>225</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="60" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E3" s="60"/>
       <c r="F3" s="60"/>
@@ -5613,43 +5604,43 @@
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -5698,7 +5689,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B6" s="24">
         <v>195158</v>
@@ -5716,7 +5707,7 @@
         <v>9158</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" s="24"/>
       <c r="M6" s="24">
@@ -5726,7 +5717,7 @@
         <v>534</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <f>148525+24916</f>
@@ -5744,7 +5735,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="H7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M7" s="24">
         <v>98457</v>
@@ -5753,7 +5744,7 @@
         <v>96</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <f>10827+2402</f>
@@ -5766,7 +5757,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -5801,15 +5792,15 @@
         <v>9.5028270618054203E-2</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B10" s="50">
         <f>B6/SUM($B6:$C6)</f>
@@ -5869,7 +5860,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="H11" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M11" s="23">
         <f>M6/SUM($M6:$N6)</f>
@@ -5880,7 +5871,7 @@
         <v>8.9594759881010102E-4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" ref="Q11:R11" si="1">Q6/SUM($Q6:$R6)</f>
@@ -5893,7 +5884,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M12" s="23">
         <f>M7/SUM($M7:$N7)</f>
@@ -5904,7 +5895,7 @@
         <v>9.7409515692064165E-4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" ref="Q12:R12" si="2">Q7/SUM($Q7:$R7)</f>
@@ -5917,12 +5908,12 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5936,7 +5927,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B17" s="50">
         <f>B16*I10</f>
@@ -5945,7 +5936,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B18" s="50">
         <f>B16*J10</f>
@@ -5954,7 +5945,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B19" s="50">
         <f>B16*Q10</f>
@@ -5963,7 +5954,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B20" s="50">
         <f>B16*R10</f>
@@ -5975,7 +5966,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B22" s="50">
         <f>1-B16</f>
@@ -5984,7 +5975,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B23" s="50">
         <f>B22*I10</f>
@@ -5993,7 +5984,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B24" s="50">
         <f>B22*J10</f>
@@ -6002,17 +5993,17 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4">
         <f>D9*K10</f>
@@ -6021,7 +6012,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B30" s="4">
         <f>D9*L10</f>
@@ -6030,7 +6021,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B31" s="4">
         <f>E9*K10</f>
@@ -6039,7 +6030,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B32" s="4">
         <f>E9*L10</f>
@@ -6048,7 +6039,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4">
         <f>F9*K10</f>
@@ -6057,7 +6048,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B34" s="4">
         <f>F9*L10</f>
@@ -6094,20 +6085,20 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" s="24">
         <v>259890776</v>
@@ -6123,7 +6114,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="24">
         <v>64796136</v>
@@ -6139,7 +6130,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" s="24">
         <v>29308589</v>
@@ -6155,7 +6146,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6" s="24">
         <v>113876</v>
@@ -6171,7 +6162,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" s="24">
         <v>39631</v>
@@ -6187,7 +6178,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" s="24">
         <v>1525514</v>
@@ -6203,7 +6194,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B9" s="24">
         <v>1495746</v>
@@ -6219,7 +6210,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" s="24">
         <v>116135</v>
@@ -6235,7 +6226,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="24">
         <v>365580900</v>
@@ -6268,7 +6259,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B18">
         <v>136231421</v>
@@ -6278,7 +6269,7 @@
         <v>0.37264370485438381</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6287,7 +6278,7 @@
         <v>0.52418721086122733</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6296,7 +6287,7 @@
         <v>0.38483941353819634</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6322,12 +6313,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="24">
         <v>80223070</v>
@@ -6339,7 +6330,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B3" s="24">
         <f>3589902866/1000</f>
@@ -6352,7 +6343,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="24">
         <f>SUM(B2:B3)</f>
@@ -6373,7 +6364,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B5" s="47">
         <f>10551342261/1000</f>
@@ -6386,7 +6377,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" s="47">
         <f>33326594392/1000</f>
@@ -6399,7 +6390,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B7" s="47">
         <f>8540511923/1000</f>
@@ -6412,7 +6403,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" s="24">
         <f>136231421398/1000</f>
@@ -6429,7 +6420,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" s="24">
         <v>259890776</v>
@@ -6437,7 +6428,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="24">
         <v>64796136</v>
@@ -6445,7 +6436,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B12" s="24">
         <v>29308589</v>
@@ -6453,7 +6444,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="24">
         <v>365580900</v>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4B12E-DC63-44E1-8D72-1140DE1BED76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFBC1D9-3CE6-40F3-8570-895F81908AA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="Z4" authorId="2" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="AA4" authorId="2" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +84,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AD4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AE4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AO4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="280">
   <si>
     <t>nsim</t>
   </si>
@@ -1114,6 +1114,21 @@
   </si>
   <si>
     <t>EEC_floor</t>
+  </si>
+  <si>
+    <t>Dev_fixedCola</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Dev_noRS</t>
+  </si>
+  <si>
+    <t>EEC_fixedRate</t>
+  </si>
+  <si>
+    <t>fixedRate</t>
   </si>
 </sst>
 </file>
@@ -1460,12 +1475,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1788,7 +1803,7 @@
   <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="Z4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="AA4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -1823,13 +1838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:AZ9"/>
+  <dimension ref="A2:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AG5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AO17" sqref="AO17"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1845,40 +1860,40 @@
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" customWidth="1"/>
-    <col min="39" max="39" width="17.42578125" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.42578125" customWidth="1"/>
-    <col min="45" max="45" width="23" customWidth="1"/>
-    <col min="46" max="46" width="16.5703125" customWidth="1"/>
-    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.28515625" customWidth="1"/>
-    <col min="51" max="51" width="11.42578125" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" customWidth="1"/>
+    <col min="40" max="40" width="17.42578125" customWidth="1"/>
+    <col min="41" max="41" width="13.7109375" customWidth="1"/>
+    <col min="42" max="42" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="12.42578125" customWidth="1"/>
+    <col min="46" max="46" width="23" customWidth="1"/>
+    <col min="47" max="47" width="16.5703125" customWidth="1"/>
+    <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" customWidth="1"/>
+    <col min="52" max="52" width="11.42578125" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:52">
-      <c r="AO2" s="23"/>
+    <row r="2" spans="1:53">
       <c r="AP2" s="23"/>
-    </row>
-    <row r="3" spans="1:52" s="21" customFormat="1" ht="18.75">
+      <c r="AQ2" s="23"/>
+    </row>
+    <row r="3" spans="1:53" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1893,62 +1908,63 @@
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="16" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
-      <c r="AF3" s="19" t="s">
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="19"/>
       <c r="AH3" s="19"/>
       <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
-      <c r="AM3" s="15" t="s">
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="15"/>
       <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
       <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
-      <c r="AT3" s="20" t="s">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AU3" s="20"/>
       <c r="AV3" s="20"/>
       <c r="AW3" s="20"/>
       <c r="AX3" s="20"/>
       <c r="AY3" s="20"/>
       <c r="AZ3" s="20"/>
-    </row>
-    <row r="4" spans="1:52" s="1" customFormat="1">
+      <c r="BA3" s="20"/>
+    </row>
+    <row r="4" spans="1:53" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>79</v>
       </c>
@@ -1979,139 +1995,142 @@
       <c r="J4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="R4" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="S4" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="T4" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="U4" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="U4" s="62" t="s">
+      <c r="V4" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="W4" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AU4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AV4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AW4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="BA4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2134,7 +2153,7 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="62">
         <v>0.125</v>
       </c>
       <c r="L5">
@@ -2149,257 +2168,439 @@
       <c r="O5" t="s">
         <v>266</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="P5">
+        <v>0.06</v>
+      </c>
+      <c r="Q5" t="b">
         <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>267</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>259</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>35</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>20</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2.75E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>999</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
         <v>245</v>
       </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
         <v>112</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>20</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AK5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AL5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL5" s="38">
+      <c r="AM5" s="38">
         <v>123</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>31</v>
       </c>
       <c r="AN5" t="s">
         <v>31</v>
       </c>
-      <c r="AO5" s="23">
+      <c r="AO5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP5" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AQ5" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AS5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>1</v>
+      <c r="AT5" s="43">
+        <v>0</v>
       </c>
       <c r="AU5" t="b">
         <v>1</v>
       </c>
       <c r="AV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
         <v>3</v>
       </c>
-      <c r="AY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52">
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="38"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AS6" s="43"/>
-      <c r="AZ6" s="22"/>
-    </row>
-    <row r="7" spans="1:52">
-      <c r="B7" s="56" t="s">
+      <c r="AZ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0.125</v>
+      </c>
+      <c r="L6">
+        <v>0.09</v>
+      </c>
+      <c r="M6">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="O6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6">
+        <v>0.06</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>276</v>
+      </c>
+      <c r="U6">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="V6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>999</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI6">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AM6" s="38">
+        <v>123</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP6" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AQ6" s="23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AT6" s="43">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>0.125</v>
+      </c>
+      <c r="L7">
+        <v>0.09</v>
+      </c>
+      <c r="M7">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="O7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P7">
+        <v>0.06</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>999</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AM7" s="38">
+        <v>123</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP7" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AQ7" s="23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AT7" s="43">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="B8" s="56" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
-      <c r="A8" t="s">
+    <row r="9" spans="1:53">
+      <c r="A9" t="s">
         <v>242</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>197</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>244</v>
-      </c>
-      <c r="X8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
-      <c r="Z8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>999</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI8">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AK8" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AL8" s="38">
-        <v>123</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO8" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AP8" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AS8" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="AT8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>238</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2408,111 +2609,227 @@
         <v>242</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>244</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>35</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>20</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>5</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>999</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
         <v>245</v>
       </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>20</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AK9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AL9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL9" s="38">
+      <c r="AM9" s="38">
         <v>123</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP9" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AQ9" s="23">
+        <v>0.6976</v>
+      </c>
+      <c r="AT9" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="AU9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>999</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AM10" s="38">
+        <v>123</v>
+      </c>
+      <c r="AN10" t="s">
         <v>118</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO10" t="s">
         <v>119</v>
       </c>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="44">
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="44">
         <v>81825573157</v>
       </c>
-      <c r="AR9" s="44">
+      <c r="AS10" s="44">
         <v>81825573157</v>
       </c>
-      <c r="AS9" s="43">
+      <c r="AT10" s="43">
         <v>0.1</v>
       </c>
-      <c r="AT9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="s">
+      <c r="AU10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="s">
         <v>3</v>
       </c>
-      <c r="AY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="22" t="b">
+      <c r="AZ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="22" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU5:AV6 C5:C6 C8:C9 AU8:AV9" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV5:AW7 AV9:AW10 C9:C10 C5:C7" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF6 AF8:AF9" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AG10 AG5:AG7" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D6 D8:D9" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D10 D5:D7" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4183,7 +4500,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4230,7 +4547,7 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -5591,15 +5908,15 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFBC1D9-3CE6-40F3-8570-895F81908AA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550597FF-EA2F-493E-A8A1-33E52445F57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,6 +41,7 @@
   <authors>
     <author>Author</author>
     <author>tc={1E17415D-3C00-4D50-B13B-6BE374701D46}</author>
+    <author>tc={2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}</author>
     <author>tc={8515E407-C037-4E97-A4C6-62FC0108B1A6}</author>
   </authors>
   <commentList>
@@ -76,7 +77,15 @@
     See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</t>
       </text>
     </comment>
-    <comment ref="AA4" authorId="2" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+    <comment ref="W4" authorId="2" shapeId="0" xr:uid="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    COLA when risk-sharing is not triggered</t>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="3" shapeId="0" xr:uid="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +93,7 @@
     The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</t>
       </text>
     </comment>
-    <comment ref="AE4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
+    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{568404F5-400A-46EF-8AA1-93D4C44E460E}">
       <text>
         <r>
           <rPr>
@@ -109,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
+    <comment ref="AQ4" authorId="0" shapeId="0" xr:uid="{148CF5FB-6519-420B-97E2-DCE9E3F8AE4C}">
       <text>
         <r>
           <rPr>
@@ -226,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="275">
   <si>
     <t>nsim</t>
   </si>
@@ -408,21 +417,9 @@
     <t>startingSalgrowth</t>
   </si>
   <si>
-    <t>2018-2019</t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
     <t>corridor</t>
   </si>
   <si>
@@ -552,18 +549,9 @@
     <t>year_reduction</t>
   </si>
   <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>2021-2049</t>
-  </si>
-  <si>
     <t>RS_shock</t>
   </si>
   <si>
-    <t>2024-2049</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
@@ -582,12 +570,6 @@
     <t>calib_qxm.post</t>
   </si>
   <si>
-    <t>MA0</t>
-  </si>
-  <si>
-    <t>AA0</t>
-  </si>
-  <si>
     <t>AL_defrRet_pctALservRet</t>
   </si>
   <si>
@@ -600,9 +582,6 @@
     <t>sim_name_baseline</t>
   </si>
   <si>
-    <t>immediate cost reduction</t>
-  </si>
-  <si>
     <t>use_baselineMA</t>
   </si>
   <si>
@@ -817,9 +796,6 @@
   </si>
   <si>
     <t>Misc members: baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERF A policy for misc and inds </t>
   </si>
   <si>
     <t>sftyAll_bf50_cola2</t>
@@ -1017,15 +993,6 @@
     <t>Misc 2 tiers, 1%bfactor(new), 2%cola</t>
   </si>
   <si>
-    <t>misc2t_baseline</t>
-  </si>
-  <si>
-    <t>misc2t_benCut1_lowERC</t>
-  </si>
-  <si>
-    <t>ramp</t>
-  </si>
-  <si>
     <t>method2</t>
   </si>
   <si>
@@ -1129,6 +1096,33 @@
   </si>
   <si>
     <t>fixedRate</t>
+  </si>
+  <si>
+    <t>regularAll_sharedADC_vCola</t>
+  </si>
+  <si>
+    <t>regularAll_sharedADC_fixedCola</t>
+  </si>
+  <si>
+    <t>Shared ADC and Variable COLA</t>
+  </si>
+  <si>
+    <t>Shared ADC and fixed COLA</t>
+  </si>
+  <si>
+    <t>sharedNC</t>
+  </si>
+  <si>
+    <t>EEC_sharedNC</t>
+  </si>
+  <si>
+    <t>regularAll_sharedNC_fixedCola</t>
+  </si>
+  <si>
+    <t>cola_default</t>
+  </si>
+  <si>
+    <t>sharedNC and fixed COLA, EEC can be 0</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1139,7 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,12 +1214,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -1253,6 +1241,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1388,7 +1390,7 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1451,25 +1453,22 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1481,6 +1480,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1501,6 +1502,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1803,7 +1808,10 @@
   <threadedComment ref="H4" dT="2020-11-29T15:06:08.38" personId="{00000000-0000-0000-0000-000000000000}" id="{1E17415D-3C00-4D50-B13B-6BE374701D46}">
     <text>See tab "Note1" for explanations of the combinations of parameters "use_baselineUAAL" and "newBasisPolicyChg"</text>
   </threadedComment>
-  <threadedComment ref="AA4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
+  <threadedComment ref="W4" dT="2021-03-13T00:37:48.89" personId="{00000000-0000-0000-0000-000000000000}" id="{2BAAEFE0-093F-4A47-AC11-22B6E01FEF48}">
+    <text>COLA when risk-sharing is not triggered</text>
+  </threadedComment>
+  <threadedComment ref="AC4" dT="2020-12-06T12:17:58.66" personId="{00000000-0000-0000-0000-000000000000}" id="{8515E407-C037-4E97-A4C6-62FC0108B1A6}">
     <text>The esclator is calibrated from 2.75% to 3.5% to match the 2018 SC</text>
   </threadedComment>
 </ThreadedComments>
@@ -1838,19 +1846,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014B46A-D012-4D18-AEAB-1D829080B2CE}">
-  <dimension ref="A2:BA10"/>
+  <dimension ref="A2:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
@@ -1859,114 +1867,117 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="23" width="17.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" customWidth="1"/>
-    <col min="40" max="40" width="17.42578125" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" customWidth="1"/>
-    <col min="42" max="42" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="12.42578125" customWidth="1"/>
-    <col min="46" max="46" width="23" customWidth="1"/>
-    <col min="47" max="47" width="16.5703125" customWidth="1"/>
-    <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="20" width="12.5703125" customWidth="1"/>
+    <col min="21" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.85546875" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" customWidth="1"/>
+    <col min="42" max="42" width="17.42578125" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" customWidth="1"/>
+    <col min="44" max="44" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.42578125" customWidth="1"/>
+    <col min="48" max="48" width="23" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.28515625" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:53">
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-    </row>
-    <row r="3" spans="1:53" s="21" customFormat="1" ht="18.75">
+    <row r="2" spans="1:55">
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+    </row>
+    <row r="3" spans="1:55" s="21" customFormat="1" ht="18.75">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="16" t="s">
+      <c r="G3" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
       <c r="AA3" s="16"/>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
       <c r="AE3" s="17"/>
       <c r="AF3" s="17"/>
-      <c r="AG3" s="19" t="s">
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
       <c r="AM3" s="19"/>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
       <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15"/>
-      <c r="AU3" s="20" t="s">
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
       <c r="AX3" s="20"/>
       <c r="AY3" s="20"/>
       <c r="AZ3" s="20"/>
       <c r="BA3" s="20"/>
-    </row>
-    <row r="4" spans="1:53" s="1" customFormat="1">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+    </row>
+    <row r="4" spans="1:55" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>36</v>
@@ -1978,156 +1989,162 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="46" t="s">
+      <c r="G4" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="N4" s="61" t="s">
+      <c r="L4" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="O4" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="R4" s="61" t="s">
+      <c r="Q4" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="U4" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="W4" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="S4" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="U4" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="V4" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="W4" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AH4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AM4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AT4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AV4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="BA4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="BB4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BA4" s="12" t="s">
+      <c r="BC4" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:55">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2136,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -2153,133 +2170,133 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="61">
         <v>0.125</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.09</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.58140000000000003</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.41860000000000003</v>
-      </c>
-      <c r="O5" t="s">
-        <v>266</v>
       </c>
       <c r="P5">
         <v>0.06</v>
       </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" t="s">
-        <v>267</v>
-      </c>
-      <c r="U5">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>253</v>
+      </c>
+      <c r="V5">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA5" t="s">
         <v>35</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>20</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>2.75E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>999</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF5" t="b">
+      <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>20</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AM5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AN5" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AM5" s="38">
+      <c r="AO5" s="38">
         <v>123</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>31</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" t="s">
         <v>31</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AR5" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AQ5" s="23">
+      <c r="AS5" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AT5" s="43">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" t="b">
-        <v>1</v>
+      <c r="AV5" s="43">
+        <v>0</v>
       </c>
       <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
         <v>3</v>
       </c>
-      <c r="AZ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
+      <c r="BB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -2288,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -2305,148 +2322,148 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="61">
         <v>0.125</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.09</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.58140000000000003</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.41860000000000003</v>
-      </c>
-      <c r="O6" t="s">
-        <v>266</v>
       </c>
       <c r="P6">
         <v>0.06</v>
       </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" t="s">
-        <v>276</v>
-      </c>
-      <c r="U6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>262</v>
+      </c>
+      <c r="V6">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA6" t="s">
         <v>35</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>20</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>2.75E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>3</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>999</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF6" t="b">
+      <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>20</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AM6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AN6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AM6" s="38">
+      <c r="AO6" s="38">
         <v>123</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>31</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
         <v>31</v>
       </c>
-      <c r="AP6" s="23">
+      <c r="AR6" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AQ6" s="23">
+      <c r="AS6" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AT6" s="43">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" t="b">
-        <v>1</v>
+      <c r="AV6" s="43">
+        <v>0</v>
       </c>
       <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="s">
         <v>3</v>
       </c>
-      <c r="AZ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
+      <c r="BB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -2457,379 +2474,628 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L7" s="61">
         <v>0.125</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.09</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.58140000000000003</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.41860000000000003</v>
-      </c>
-      <c r="O7" t="s">
-        <v>279</v>
       </c>
       <c r="P7">
         <v>0.06</v>
       </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7" t="s">
-        <v>276</v>
-      </c>
-      <c r="U7">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>262</v>
+      </c>
+      <c r="V7">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA7" t="s">
         <v>35</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>20</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>2.75E-2</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>3</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>999</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="s">
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AL7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AO7" s="38">
+        <v>123</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR7" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AS7" s="23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AV7" s="43">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="B8" s="55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="M9">
+        <v>0.09</v>
+      </c>
+      <c r="N9">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="P9">
+        <v>0.06</v>
+      </c>
+      <c r="Q9">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>253</v>
+      </c>
+      <c r="V9">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="W9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
         <v>245</v>
       </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9">
         <v>20</v>
       </c>
-      <c r="AI7">
+      <c r="AC9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>999</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK9">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="AJ7">
+      <c r="AL9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AM9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AN9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AM7" s="38">
+      <c r="AO9" s="38">
         <v>123</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP9" t="s">
         <v>31</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ9" t="s">
         <v>31</v>
       </c>
-      <c r="AP7" s="23">
+      <c r="AR9" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AQ7" s="23">
+      <c r="AS9" s="23">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AT7" s="43">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="AV9" s="43">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="s">
         <v>3</v>
       </c>
-      <c r="AZ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="B8" s="56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="BB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="M10">
+        <v>0.09</v>
+      </c>
+      <c r="N10">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="O10">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.06</v>
+      </c>
+      <c r="Q10">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>262</v>
+      </c>
+      <c r="V10">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="W10">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA10" t="s">
         <v>35</v>
       </c>
-      <c r="Z9">
+      <c r="AB10">
         <v>20</v>
       </c>
-      <c r="AA9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB9">
-        <v>5</v>
-      </c>
-      <c r="AC9">
+      <c r="AC10">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
         <v>999</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AL10">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AO10" s="38">
+        <v>123</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR10" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AS10" s="23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AV10" s="43">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="61">
+        <v>0.125</v>
+      </c>
+      <c r="M11">
+        <v>0.09</v>
+      </c>
+      <c r="N11">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="O11">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="P11">
+        <v>0.06</v>
+      </c>
+      <c r="Q11">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>262</v>
+      </c>
+      <c r="V11">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="W11">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="X11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
         <v>245</v>
       </c>
-      <c r="AF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11">
         <v>20</v>
       </c>
-      <c r="AI9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ9">
+      <c r="AC11">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>999</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="AL11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AM11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AN11" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AM9" s="38">
+      <c r="AO11" s="38">
         <v>123</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP11" t="s">
         <v>31</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AQ11" t="s">
         <v>31</v>
       </c>
-      <c r="AP9" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AQ9" s="23">
-        <v>0.6976</v>
-      </c>
-      <c r="AT9" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="AU9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="s">
+      <c r="AR11" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AS11" s="23">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AV11" s="43">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="s">
         <v>3</v>
       </c>
-      <c r="AZ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="X10" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z10">
-        <v>20</v>
-      </c>
-      <c r="AA10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AB10">
-        <v>5</v>
-      </c>
-      <c r="AC10">
-        <v>999</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ10">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AM10" s="38">
-        <v>123</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="44">
-        <v>81825573157</v>
-      </c>
-      <c r="AS10" s="44">
-        <v>81825573157</v>
-      </c>
-      <c r="AT10" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="AU10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA10" s="22" t="b">
-        <v>1</v>
+      <c r="BB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="22" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV5:AW7 AV9:AW10 C9:C10 C5:C7" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AY7 C5:C7 AX9:AY11 C9:C11" xr:uid="{1240F49A-5091-456D-B77A-0673AD56E758}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AG10 AG5:AG7" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI5:AI7 AI9:AI11" xr:uid="{8909875A-86FC-4594-BBAF-A364A5851F3C}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D10 D5:D7" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D7 D9:D11" xr:uid="{EC327A6A-3FD9-4228-86E6-BF4DFCBDFAEB}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2856,15 +3122,15 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>251</v>
+      <c r="B3" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2875,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2886,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2897,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2911,10 +3177,10 @@
   <dimension ref="A3:R51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2943,7 +3209,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="15" t="s">
@@ -2951,32 +3217,32 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>36</v>
@@ -2985,10 +3251,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>47</v>
@@ -3000,51 +3266,51 @@
         <v>25</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>2.75E-2</v>
@@ -3106,22 +3372,22 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>2.75E-2</v>
@@ -3159,22 +3425,22 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>2.75E-2</v>
@@ -3212,22 +3478,22 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>2.75E-2</v>
@@ -3268,22 +3534,22 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2.75E-2</v>
@@ -3324,22 +3590,22 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>2.75E-2</v>
@@ -3380,22 +3646,22 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G20">
         <v>2.75E-2</v>
@@ -3436,22 +3702,22 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>2.75E-2</v>
@@ -3492,22 +3758,22 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>2.75E-2</v>
@@ -3548,22 +3814,22 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>2.75E-2</v>
@@ -3604,22 +3870,22 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G27">
         <v>2.75E-2</v>
@@ -3657,22 +3923,22 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>2.75E-2</v>
@@ -3710,22 +3976,22 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>2.75E-2</v>
@@ -3766,22 +4032,22 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>2.75E-2</v>
@@ -3822,22 +4088,22 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>2.75E-2</v>
@@ -3878,22 +4144,22 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G33">
         <v>2.75E-2</v>
@@ -3934,22 +4200,22 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>2.75E-2</v>
@@ -3990,22 +4256,22 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G36">
         <v>2.75E-2</v>
@@ -4046,22 +4312,22 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>2.75E-2</v>
@@ -4105,22 +4371,22 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>2.75E-2</v>
@@ -4158,22 +4424,22 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>2.75E-2</v>
@@ -4211,22 +4477,22 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>2.75E-2</v>
@@ -4267,22 +4533,22 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2.75E-2</v>
@@ -4322,23 +4588,23 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="59" t="s">
-        <v>236</v>
+      <c r="A49" s="58" t="s">
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>2.75E-2</v>
@@ -4375,23 +4641,23 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="59" t="s">
-        <v>237</v>
+      <c r="A50" s="58" t="s">
+        <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>2.75E-2</v>
@@ -4428,23 +4694,23 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="59" t="s">
-        <v>238</v>
+      <c r="A51" s="58" t="s">
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G51">
         <v>2.75E-2</v>
@@ -4500,7 +4766,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4547,13 +4813,13 @@
         <v>2020</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4598,7 +4864,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4656,7 +4922,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4670,26 +4936,23 @@
         <v>0.12</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E10" si="1">F3</f>
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3" si="2">B3 - C3^2/2</f>
+        <f t="shared" ref="F3:F4" si="2">B3 - C3^2/2</f>
         <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -4698,12 +4961,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <f>F4</f>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F6" si="3">B4 - C4^2/2</f>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -4711,10 +4974,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4">
-        <v>0.03</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -4723,19 +4986,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <f>F5</f>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F5" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
+        <f t="shared" ref="F5" si="3">B5 - C5^2/2</f>
+        <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B6" s="4">
         <v>-0.24</v>
@@ -4751,16 +5012,13 @@
         <v>-0.24</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F4:F6" si="4">B6 - C6^2/2</f>
         <v>-0.24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4">
         <v>0.12</v>
@@ -4776,16 +5034,13 @@
         <v>0.12</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" ref="F7:F10" si="4">B7 - C7^2/2</f>
+        <f t="shared" ref="F7:F10" si="5">B7 - C7^2/2</f>
         <v>0.12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B8" s="4">
         <v>0.12</v>
@@ -4801,16 +5056,13 @@
         <v>0.12</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -4826,16 +5078,13 @@
         <v>0.12</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4">
         <v>7.0000000000000007E-2</v>
@@ -4844,18 +5093,15 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4890,43 +5136,43 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>246</v>
+        <v>173</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" s="27">
         <v>174402</v>
@@ -4951,14 +5197,14 @@
         <f t="shared" ref="I5:I6" si="0">SUM(F5:H5)</f>
         <v>76935</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="56">
         <f>SUM(D5,I5)</f>
         <v>263148</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="27">
         <v>37586</v>
@@ -4983,14 +5229,14 @@
         <f t="shared" si="0"/>
         <v>12394</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <f t="shared" ref="K6:K12" si="2">SUM(D6,I6)</f>
         <v>58889</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="27">
         <v>61005</v>
@@ -5015,14 +5261,14 @@
         <f>SUM(F7:H7)</f>
         <v>14632</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="56">
         <f t="shared" si="2"/>
         <v>79203</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="27">
         <v>195158</v>
@@ -5047,14 +5293,14 @@
         <f t="shared" ref="I8:I25" si="3">SUM(F8:H8)</f>
         <v>74854</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="56">
         <f t="shared" si="2"/>
         <v>284654</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="27">
         <v>468151</v>
@@ -5079,7 +5325,7 @@
         <f t="shared" si="3"/>
         <v>178815</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="56">
         <f t="shared" si="2"/>
         <v>685894</v>
       </c>
@@ -5091,7 +5337,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="27">
         <v>12251583453</v>
@@ -5106,7 +5352,7 @@
       <c r="F11" s="27">
         <v>2316124913</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="51">
         <v>3522647266</v>
       </c>
       <c r="H11" s="27">
@@ -5116,14 +5362,14 @@
         <f t="shared" si="3"/>
         <v>6710667300</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="56">
         <f t="shared" si="2"/>
         <v>19661503652</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" s="27">
         <v>12934685803</v>
@@ -5138,7 +5384,7 @@
       <c r="F12" s="27">
         <v>2445263353</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <v>3719056868</v>
       </c>
       <c r="H12" s="27">
@@ -5148,7 +5394,7 @@
         <f t="shared" si="3"/>
         <v>7084828944</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="56">
         <f t="shared" si="2"/>
         <v>20757755365</v>
       </c>
@@ -5162,7 +5408,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -5170,7 +5416,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" s="27">
         <v>132446673597</v>
@@ -5182,7 +5428,7 @@
         <f t="shared" si="1"/>
         <v>138193579136</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>17751712839</v>
       </c>
       <c r="G15" s="27">
@@ -5195,14 +5441,14 @@
         <f t="shared" si="3"/>
         <v>91425617716</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="56">
         <f t="shared" ref="K15:K18" si="4">SUM(D15,I15)</f>
         <v>229619196852</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B16" s="27">
         <v>115469058970</v>
@@ -5214,7 +5460,7 @@
         <f t="shared" si="1"/>
         <v>120139095571</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <v>13590778296</v>
       </c>
       <c r="G16" s="27">
@@ -5227,14 +5473,14 @@
         <f t="shared" si="3"/>
         <v>75766994231</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="56">
         <f t="shared" si="4"/>
         <v>195906089802</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17" s="27">
         <v>80223069956</v>
@@ -5246,7 +5492,7 @@
         <f t="shared" si="1"/>
         <v>83812972822</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <v>10551342261</v>
       </c>
       <c r="G17" s="27">
@@ -5259,14 +5505,14 @@
         <f t="shared" si="3"/>
         <v>52418448576</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="56">
         <f t="shared" si="4"/>
         <v>136231421398</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B18" s="27">
         <v>35245989014</v>
@@ -5278,7 +5524,7 @@
         <f t="shared" si="1"/>
         <v>36326122749</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <v>3039436035</v>
       </c>
       <c r="G18" s="27">
@@ -5291,14 +5537,14 @@
         <f t="shared" si="3"/>
         <v>23348545655</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="56">
         <f t="shared" si="4"/>
         <v>59674668404</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19" s="32">
         <v>0.69499999999999995</v>
@@ -5339,7 +5585,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -5347,7 +5593,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B22" s="27">
         <v>2174670866</v>
@@ -5359,27 +5605,27 @@
         <f t="shared" si="1"/>
         <v>2309480985</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="51">
         <v>566958761</v>
       </c>
       <c r="G22" s="27">
         <v>1111774860</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="51">
         <v>274753444</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" si="3"/>
         <v>1953487065</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="56">
         <f t="shared" ref="K22:K25" si="5">SUM(D22,I22)</f>
         <v>4262968050</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23" s="27">
         <v>893164372</v>
@@ -5391,27 +5637,27 @@
         <f t="shared" si="1"/>
         <v>951994767</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="51">
         <v>256385863</v>
       </c>
       <c r="G23" s="27">
         <v>426055155</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="51">
         <v>96865133</v>
       </c>
       <c r="I23" s="27">
         <f t="shared" si="3"/>
         <v>779306151</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="56">
         <f t="shared" si="5"/>
         <v>1731300918</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B24" s="27">
         <v>1281506494</v>
@@ -5423,27 +5669,27 @@
         <f t="shared" si="1"/>
         <v>1357486218</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="51">
         <v>310572898</v>
       </c>
       <c r="G24" s="27">
         <v>685719705</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="51">
         <v>177888311</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" si="3"/>
         <v>1174180914</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="56">
         <f t="shared" si="5"/>
         <v>2531667132</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B25" s="27">
         <v>2725165218</v>
@@ -5455,27 +5701,27 @@
         <f t="shared" si="1"/>
         <v>2802909539</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <v>215802566</v>
       </c>
       <c r="G25" s="27">
         <v>1069586142</v>
       </c>
-      <c r="H25" s="52">
+      <c r="H25" s="51">
         <v>354215017</v>
       </c>
       <c r="I25" s="27">
         <f t="shared" si="3"/>
         <v>1639603725</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="56">
         <f t="shared" si="5"/>
         <v>4442513264</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="33" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B26" s="27">
         <f>B24+B25</f>
@@ -5514,12 +5760,12 @@
     </row>
     <row r="28" spans="1:11" ht="25.5">
       <c r="A28" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B29" s="34">
         <v>0.16813</v>
@@ -5531,13 +5777,13 @@
         <f>D22/$D$12</f>
         <v>0.16890904798938361</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="52">
         <v>0.23186000000000001</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="52">
         <v>0.29893999999999998</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="52">
         <v>0.29848000000000002</v>
       </c>
       <c r="I29" s="36">
@@ -5551,7 +5797,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B30" s="34">
         <v>6.905E-2</v>
@@ -5563,13 +5809,13 @@
         <f t="shared" ref="D30:D32" si="7">D23/$D$12</f>
         <v>6.9626262709777217E-2</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="52">
         <v>0.10485</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="52">
         <v>0.11456</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="52">
         <v>0.10523</v>
       </c>
       <c r="I30" s="36">
@@ -5583,7 +5829,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B31" s="34">
         <v>9.9080000000000001E-2</v>
@@ -5595,13 +5841,13 @@
         <f t="shared" si="7"/>
         <v>9.9282785279606378E-2</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="52">
         <v>0.12701000000000001</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="52">
         <v>0.18437999999999999</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="52">
         <v>0.19325000000000001</v>
       </c>
       <c r="I31" s="36">
@@ -5615,7 +5861,7 @@
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="34">
         <v>0.21068999999999999</v>
@@ -5627,13 +5873,13 @@
         <f t="shared" si="7"/>
         <v>0.20499704691565238</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="52">
         <v>8.8249999999999995E-2</v>
       </c>
-      <c r="G32" s="53">
+      <c r="G32" s="52">
         <v>0.28760000000000002</v>
       </c>
-      <c r="H32" s="53">
+      <c r="H32" s="52">
         <v>0.38479999999999998</v>
       </c>
       <c r="I32" s="36">
@@ -5647,7 +5893,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="35">
         <v>0.30976999999999999</v>
@@ -5659,13 +5905,13 @@
         <f>SUM(D24:D25)/D12</f>
         <v>0.30427983219525878</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="53">
         <v>0.21526000000000001</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="53">
         <v>0.47198000000000001</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="53">
         <v>0.57811000000000001</v>
       </c>
       <c r="I33" s="36">
@@ -5679,12 +5925,12 @@
     </row>
     <row r="35" spans="1:11" ht="25.5">
       <c r="A35" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B36" s="36">
         <f>B22/B$11</f>
@@ -5721,7 +5967,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B37" s="36">
         <f t="shared" ref="B37:C39" si="10">B23/B$11</f>
@@ -5758,7 +6004,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B38" s="36">
         <f t="shared" si="10"/>
@@ -5795,7 +6041,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B39" s="36">
         <f t="shared" si="10"/>
@@ -5832,7 +6078,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B40" s="36">
         <f>SUM(B24:B25)/B$11</f>
@@ -5898,71 +6144,71 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B5" s="24">
         <v>174402</v>
@@ -5980,7 +6226,7 @@
         <v>7311</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I5" s="24">
         <v>200645</v>
@@ -5995,7 +6241,7 @@
         <v>26540</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="24">
         <v>170997</v>
@@ -6006,7 +6252,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B6" s="24">
         <v>195158</v>
@@ -6024,7 +6270,7 @@
         <v>9158</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I6" s="24"/>
       <c r="M6" s="24">
@@ -6034,7 +6280,7 @@
         <v>534</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <f>148525+24916</f>
@@ -6052,7 +6298,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M7" s="24">
         <v>98457</v>
@@ -6061,7 +6307,7 @@
         <v>96</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <f>10827+2402</f>
@@ -6073,8 +6319,8 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="49" t="s">
-        <v>220</v>
+      <c r="A8" s="48" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -6086,61 +6332,61 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="50">
+        <v>99</v>
+      </c>
+      <c r="B9" s="49">
         <f>B5/SUM($B5:$C5)</f>
         <v>0.93657263456364481</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <f>C5/SUM($B5:$C5)</f>
         <v>6.3427365436355146E-2</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <f>D5/SUM($D5:$F5)</f>
         <v>0.36829791382335736</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="49">
         <f t="shared" ref="E9:F10" si="0">E5/SUM($D5:$F5)</f>
         <v>0.5366738155585884</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="49">
         <f t="shared" si="0"/>
         <v>9.5028270618054203E-2</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="P9" s="49" t="s">
-        <v>225</v>
+      <c r="H9" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="50">
+        <v>139</v>
+      </c>
+      <c r="B10" s="49">
         <f>B6/SUM($B6:$C6)</f>
         <v>0.93020972354623455</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="49">
         <f>C6/SUM($B6:$C6)</f>
         <v>6.9790276453765496E-2</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="49">
         <f>D6/SUM($D6:$F6)</f>
         <v>0.34398963315253694</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>0.53366553557592111</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="49">
         <f t="shared" si="0"/>
         <v>0.12234483127154193</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I10" s="23">
         <f>I5/SUM($I5:$J5)</f>
@@ -6159,7 +6405,7 @@
         <v>0.29259687999559009</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="6">
         <f>Q5/SUM($Q5:$R5)</f>
@@ -6177,7 +6423,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M11" s="23">
         <f>M6/SUM($M6:$N6)</f>
@@ -6188,7 +6434,7 @@
         <v>8.9594759881010102E-4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" ref="Q11:R11" si="1">Q6/SUM($Q6:$R6)</f>
@@ -6201,7 +6447,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="H12" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M12" s="23">
         <f>M7/SUM($M7:$N7)</f>
@@ -6212,7 +6458,7 @@
         <v>9.7409515692064165E-4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" ref="Q12:R12" si="2">Q7/SUM($Q7:$R7)</f>
@@ -6225,102 +6471,102 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="50">
+        <v>76</v>
+      </c>
+      <c r="B16" s="49">
         <f>B9</f>
         <v>0.93657263456364481</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="50">
+        <v>140</v>
+      </c>
+      <c r="B17" s="49">
         <f>B16*I10</f>
         <v>0.67873244648882858</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="50">
+        <v>149</v>
+      </c>
+      <c r="B18" s="49">
         <f>B16*J10</f>
         <v>0.25784018807481618</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="50">
+      <c r="A19" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="49">
         <f>B16*Q10</f>
         <v>0.91828712281097447</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="50">
+      <c r="A20" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="49">
         <f>B16*R10</f>
         <v>1.828551175267033E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="50"/>
+      <c r="B21" s="49"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="50">
+        <v>215</v>
+      </c>
+      <c r="B22" s="49">
         <f>1-B16</f>
         <v>6.3427365436355188E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="50">
+        <v>150</v>
+      </c>
+      <c r="B23" s="49">
         <f>B22*I10</f>
         <v>4.5965693773463379E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="50">
+        <v>151</v>
+      </c>
+      <c r="B24" s="49">
         <f>B22*J10</f>
         <v>1.7461671662891802E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B29" s="4">
         <f>D9*K10</f>
@@ -6329,7 +6575,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4">
         <f>D9*L10</f>
@@ -6338,7 +6584,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B31" s="4">
         <f>E9*K10</f>
@@ -6347,7 +6593,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B32" s="4">
         <f>E9*L10</f>
@@ -6356,7 +6602,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B33" s="4">
         <f>F9*K10</f>
@@ -6365,7 +6611,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4">
         <f>F9*L10</f>
@@ -6402,20 +6648,20 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B3" s="24">
         <v>259890776</v>
@@ -6431,7 +6677,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B4" s="24">
         <v>64796136</v>
@@ -6447,7 +6693,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B5" s="24">
         <v>29308589</v>
@@ -6463,7 +6709,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B6" s="24">
         <v>113876</v>
@@ -6479,7 +6725,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B7" s="24">
         <v>39631</v>
@@ -6495,7 +6741,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B8" s="24">
         <v>1525514</v>
@@ -6511,7 +6757,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B9" s="24">
         <v>1495746</v>
@@ -6527,7 +6773,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B10" s="24">
         <v>116135</v>
@@ -6543,7 +6789,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B11" s="24">
         <v>365580900</v>
@@ -6576,7 +6822,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B18">
         <v>136231421</v>
@@ -6586,7 +6832,7 @@
         <v>0.37264370485438381</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6595,7 +6841,7 @@
         <v>0.52418721086122733</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6604,7 +6850,7 @@
         <v>0.38483941353819634</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6630,43 +6876,43 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B2" s="24">
         <v>80223070</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <f>B2/B$8</f>
         <v>0.58887347116219513</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B3" s="24">
         <f>3589902866/1000</f>
         <v>3589902.8659999999</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <f t="shared" ref="C3:C8" si="0">B3/B$8</f>
         <v>2.6351504147579148E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B4" s="24">
         <f>SUM(B2:B3)</f>
         <v>83812972.865999997</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <f t="shared" si="0"/>
         <v>0.61522497530977416</v>
       </c>
@@ -6681,52 +6927,52 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="47">
+        <v>131</v>
+      </c>
+      <c r="B5" s="46">
         <f>10551342261/1000</f>
         <v>10551342.261</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <f t="shared" si="0"/>
         <v>7.7451605163644743E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="47">
+        <v>132</v>
+      </c>
+      <c r="B6" s="46">
         <f>33326594392/1000</f>
         <v>33326594.392000001</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <f t="shared" si="0"/>
         <v>0.24463221516742734</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="47">
+        <v>133</v>
+      </c>
+      <c r="B7" s="46">
         <f>8540511923/1000</f>
         <v>8540511.9230000004</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <f t="shared" si="0"/>
         <v>6.2691204682133503E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B8" s="24">
         <f>136231421398/1000</f>
         <v>136231421.398</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6737,7 +6983,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B10" s="24">
         <v>259890776</v>
@@ -6745,7 +6991,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B11" s="24">
         <v>64796136</v>
@@ -6753,7 +6999,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B12" s="24">
         <v>29308589</v>
@@ -6761,7 +7007,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B14" s="24">
         <v>365580900</v>

--- a/model/RunControl.xlsx
+++ b/model/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550597FF-EA2F-493E-A8A1-33E52445F57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F0B0D-FB56-4916-840E-48BE4824945F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="276">
   <si>
     <t>nsim</t>
   </si>
@@ -1124,6 +1124,9 @@
   <si>
     <t>sharedNC and fixed COLA, EEC can be 0</t>
   </si>
+  <si>
+    <t>method1</t>
+  </si>
 </sst>
 </file>
 
@@ -1139,7 +1142,7 @@
     <numFmt numFmtId="168" formatCode="0.000%"/>
     <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,12 +1252,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1477,11 +1474,11 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1502,10 +1499,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,10 +1842,10 @@
   <dimension ref="A2:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="Z5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2006,7 +1999,7 @@
       <c r="J4" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="62" t="s">
         <v>251</v>
       </c>
       <c r="L4" s="60" t="s">
@@ -2036,7 +2029,7 @@
       <c r="T4" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="62" t="s">
         <v>254</v>
       </c>
       <c r="V4" s="60" t="s">
@@ -2138,7 +2131,7 @@
       <c r="BB4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BC4" s="64" t="s">
+      <c r="BC4" s="63" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2231,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AH5" t="b">
         <v>0</v>
@@ -2701,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AH9" t="b">
         <v>0</v>
@@ -2862,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AH10" t="b">
         <v>0</v>
@@ -3023,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="AH11" t="b">
         <v>0</v>
@@ -5012,7 +5005,7 @@
         <v>-0.24</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F4:F6" si="4">B6 - C6^2/2</f>
+        <f t="shared" ref="F6" si="4">B6 - C6^2/2</f>
         <v>-0.24</v>
       </c>
     </row>
@@ -6154,15 +6147,15 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
